--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC135E-E489-3141-9472-1EE20A24370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA902C3B-E9A5-0F4C-90DA-B7AA2DF00E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -376,43 +376,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,7 +924,7 @@
   <dimension ref="C1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,279 +941,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="J1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="12" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="G2" s="18" t="str">
+      <c r="G2" s="12" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="H2" s="18" t="str">
+      <c r="H2" s="12" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
-      <c r="J2" s="18" t="str">
+      <c r="J2" s="12" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K2" s="18" t="str">
+      <c r="K2" s="12" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L2" s="19" t="str">
+      <c r="L2" s="13" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="22"/>
+      <c r="J4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="8" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="5" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="5" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="4" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4"/>
-      <c r="J14" s="2" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="J14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="4"/>
-      <c r="J15" s="18" t="str">
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+      <c r="J15" s="12" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="K15" s="12" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="12" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="4"/>
-      <c r="J16" s="16" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="J16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="J17" s="16" t="s">
+      <c r="E17" s="2"/>
+      <c r="J17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4"/>
-      <c r="J18" s="16" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="J18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="J19" s="16" t="s">
+      <c r="E19" s="2"/>
+      <c r="J19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="J20" s="17" t="s">
+      <c r="E20" s="2"/>
+      <c r="J20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA902C3B-E9A5-0F4C-90DA-B7AA2DF00E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0288D-4FD3-B042-895D-BE933D673212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>dataSource</t>
   </si>
@@ -203,6 +225,30 @@
   </si>
   <si>
     <t>Rotate the card.</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Macabee</t>
+  </si>
+  <si>
+    <t>Boisdur</t>
+  </si>
+  <si>
+    <t>Malac</t>
+  </si>
+  <si>
+    <t>Armede</t>
+  </si>
+  <si>
+    <t>Kali</t>
+  </si>
+  <si>
+    <t>Nejin</t>
   </si>
 </sst>
 </file>
@@ -419,6 +465,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,10 +487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,15 +967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC1E833-A33E-4149-B64A-E8A187B7150D}">
-  <dimension ref="C1:L24"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
@@ -941,16 +987,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F2" s="12" t="str">
@@ -991,18 +1037,18 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="J4" s="22" t="s">
+      <c r="H4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F5" s="10" t="s">
@@ -1031,11 +1077,11 @@
     </row>
     <row r="8" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="str">
@@ -1078,11 +1124,11 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
@@ -1104,11 +1150,11 @@
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
       <c r="J16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1163,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1133,44 +1179,52 @@
       </c>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="J18" s="22" t="s">
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J19" s="10" t="s">
         <v>45</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="11" t="s">
         <v>47</v>
       </c>
@@ -1179,41 +1233,97 @@
       </c>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="str" cm="1">
+        <f t="array" ref="A31:A38">C17:C24</f>
+        <v>get remainingCouples</v>
+      </c>
+      <c r="D31" t="str" cm="1">
+        <f t="array" ref="D31:D32">J19:J20</f>
+        <v>activate(flag)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <v>override init(dataSource)</v>
+      </c>
+      <c r="D32" t="str">
+        <v>rotate()</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <v>initLines(dataSource)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <v>initCards(dataSource)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <v>cardClickHandler(card)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <v>checkCouple()</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <v>flipCards()</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <v>isCardsMatch()</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0288D-4FD3-B042-895D-BE933D673212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46F042-2CE9-E842-BE1A-9A78E71FC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Diagram!$C$1:$L$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>dataSource</t>
   </si>
@@ -249,6 +252,12 @@
   </si>
   <si>
     <t>Nejin</t>
+  </si>
+  <si>
+    <t>Joséphine</t>
+  </si>
+  <si>
+    <t>class Line(dataSource)</t>
   </si>
 </sst>
 </file>
@@ -967,10 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC1E833-A33E-4149-B64A-E8A187B7150D}">
-  <dimension ref="A1:L38"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1175,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1191,7 @@
       </c>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1195,7 +1207,7 @@
       </c>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1231,9 +1243,11 @@
       <c r="K20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
@@ -1277,51 +1291,56 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="str" cm="1">
-        <f t="array" ref="A31:A38">C17:C24</f>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="str" cm="1">
+        <f t="array" ref="A46:A53">C17:C24</f>
         <v>get remainingCouples</v>
       </c>
-      <c r="D31" t="str" cm="1">
-        <f t="array" ref="D31:D32">J19:J20</f>
+      <c r="D46" t="str" cm="1">
+        <f t="array" ref="D46:D47">J19:J20</f>
         <v>activate(flag)</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
         <v>override init(dataSource)</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D47" t="str">
         <v>rotate()</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
         <v>initLines(dataSource)</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
         <v>initCards(dataSource)</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
         <v>cardClickHandler(card)</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
         <v>checkCouple()</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
         <v>flipCards()</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
         <v>isCardsMatch()</v>
       </c>
     </row>
@@ -1333,6 +1352,7 @@
     <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1367,5 +1387,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46F042-2CE9-E842-BE1A-9A78E71FC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA987570-779A-ED40-BFDA-F2D32AC818E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
+    <workbookView xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>dataSource</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Malac</t>
   </si>
   <si>
-    <t>Armede</t>
-  </si>
-  <si>
     <t>Kali</t>
   </si>
   <si>
@@ -264,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +280,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,11 +463,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -496,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +987,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,270 +1005,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="12" t="str">
+      <c r="F2" s="11" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="11" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="11" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="11" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K2" s="12" t="str">
+      <c r="K2" s="11" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L2" s="13" t="str">
+      <c r="L2" s="12" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="8" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="4" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="11" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="11" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="11" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="J16" s="10" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="J16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1270,10 +1276,10 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1281,19 +1287,19 @@
       </c>
     </row>
     <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
+      <c r="E24" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA987570-779A-ED40-BFDA-F2D32AC818E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F6355-05D2-9E48-BA57-0283E9A880B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
@@ -988,7 +988,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46F042-2CE9-E842-BE1A-9A78E71FC956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F6355-05D2-9E48-BA57-0283E9A880B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
+    <workbookView xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>dataSource</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Malac</t>
   </si>
   <si>
-    <t>Armede</t>
-  </si>
-  <si>
     <t>Kali</t>
   </si>
   <si>
@@ -264,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +280,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,11 +463,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -496,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +987,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,270 +1005,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="12" t="str">
+      <c r="F2" s="11" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="11" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="11" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="11" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K2" s="12" t="str">
+      <c r="K2" s="11" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L2" s="13" t="str">
+      <c r="L2" s="12" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="8" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="4" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="11" t="str">
         <f>Param!A1</f>
         <v>Properties / Methods</v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="11" t="str">
         <f>Param!A2</f>
         <v>Description</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="11" t="str">
         <f>Param!A3</f>
         <v>Assignment</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="J16" s="10" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="J16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1270,10 +1276,10 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1281,19 +1287,19 @@
       </c>
     </row>
     <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
+      <c r="E24" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">

--- a/asset/diagram.xlsx
+++ b/asset/diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/formateur/Desktop/jeu_de_paires/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F6355-05D2-9E48-BA57-0283E9A880B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD04391-B31F-8C44-8EAD-0715ADDC7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="13900" xr2:uid="{8735055C-E134-3E4D-82DA-80B73531BE17}"/>
   </bookViews>
@@ -988,7 +988,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
